--- a/facebook_set/קובץ נתונים הפועל אשקלון.xlsx
+++ b/facebook_set/קובץ נתונים הפועל אשקלון.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erlichsefi\Google Drive\Running projects\מחקר ספורט\Code\facebook_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5981B366-6CF5-4864-9A40-0081CE8E7D44}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E526706F-8C54-47F2-8F55-F1681CF2F27B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10095" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="120">
   <si>
     <t>מועד המשחק</t>
   </si>
@@ -381,9 +381,6 @@
   <si>
     <t>מכבי פ.ת</t>
   </si>
-  <si>
-    <t> 05/02/18</t>
-  </si>
 </sst>
 </file>
 
@@ -500,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,7 +533,6 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -906,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -7334,8 +7330,8 @@
       </c>
     </row>
     <row r="22" spans="1:101" ht="14.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="19" t="s">
-        <v>120</v>
+      <c r="A22" s="12">
+        <v>43136</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>117</v>
@@ -10665,7 +10661,7 @@
       <c r="C33" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>0.79166666666666663</v>
       </c>
       <c r="E33" s="13">
